--- a/newwisedata/testssh_ans/mcmcwise.xlsx
+++ b/newwisedata/testssh_ans/mcmcwise.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>wf</t>
+  </si>
+  <si>
+    <t>Dwise</t>
   </si>
   <si>
     <t>Derr</t>
@@ -178,12 +181,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,14 +211,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,9 +233,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,18 +262,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,75 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +300,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -367,55 +363,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,127 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,56 +582,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -659,6 +605,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,159 +643,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1183,8 +1176,8 @@
   <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1199,31 +1192,31 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>4.05</v>
@@ -1249,7 +1242,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>4.18</v>
@@ -1269,7 +1262,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3.47</v>
@@ -1289,7 +1282,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>2.89</v>
@@ -1312,7 +1305,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>2.81</v>
@@ -1332,7 +1325,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0.03</v>
@@ -1358,7 +1351,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1.67</v>
@@ -1381,7 +1374,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1.78</v>
@@ -1404,7 +1397,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>1.38</v>
@@ -1424,7 +1417,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>2.15</v>
@@ -1450,7 +1443,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1473,7 +1466,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>1.11</v>
@@ -1496,7 +1489,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>4.99</v>
@@ -1519,7 +1512,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>4.19</v>
@@ -1542,7 +1535,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>4.45</v>
@@ -1565,7 +1558,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>2.63</v>
@@ -1585,7 +1578,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>1.88</v>
@@ -1605,7 +1598,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>4.24</v>
@@ -1628,7 +1621,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>1.34</v>
@@ -1648,7 +1641,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1668,7 +1661,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>0.36</v>
@@ -1691,7 +1684,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1711,7 +1704,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>4.56</v>
@@ -1731,7 +1724,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>0.17</v>
@@ -1754,7 +1747,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>2.15</v>
@@ -1774,7 +1767,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>2.17</v>
@@ -1794,7 +1787,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>2.6</v>
@@ -1817,7 +1810,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>2.44</v>
@@ -1837,7 +1830,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>0.03</v>
@@ -1863,7 +1856,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>4.18</v>
@@ -1889,7 +1882,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -1912,7 +1905,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1932,7 +1925,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1955,7 +1948,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>0.17</v>
@@ -1975,7 +1968,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>1.9</v>
@@ -1995,7 +1988,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -2009,7 +2002,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2029,7 +2022,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39">
         <v>86</v>
@@ -2040,7 +2033,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>390</v>
@@ -2054,7 +2047,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -2071,7 +2064,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>97</v>
@@ -2085,7 +2078,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E43">
         <v>101</v>
@@ -2099,7 +2092,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E44">
         <v>450</v>
